--- a/mcmaster_excel/Steel_Extra-Wide_Truss_Head_Slotted_Screws.xlsx
+++ b/mcmaster_excel/Steel_Extra-Wide_Truss_Head_Slotted_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,129 +434,97 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Min.Thread Lg.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Tensile Strength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>Min.Thread Lg.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.321"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.086"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>Tensile Strength, psi</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>90271A144</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>$4.00</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>6-32</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -596,12 +564,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>90271A146</t>
+          <t>90271A144</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>$4.00</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -618,7 +586,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -658,12 +626,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>90271A148</t>
+          <t>90271A146</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -680,7 +648,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -720,12 +688,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>90271A151</t>
+          <t>90271A148</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>5.19</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -742,7 +710,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -782,12 +750,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>90271A153</t>
+          <t>90271A151</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -804,7 +772,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -819,12 +787,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.384"</t>
+          <t>0.321"</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.102"</t>
+          <t>0.086"</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -844,17 +812,17 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>90271A190</t>
+          <t>90271A153</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -866,7 +834,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -906,12 +874,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>90271A192</t>
+          <t>90271A190</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -928,7 +896,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -968,12 +936,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>90271A194</t>
+          <t>90271A192</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -990,7 +958,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1030,12 +998,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>90271A197</t>
+          <t>90271A194</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1052,7 +1020,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1092,12 +1060,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>90271A199</t>
+          <t>90271A197</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1114,7 +1082,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1154,12 +1122,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>90271A203</t>
+          <t>90271A199</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1176,7 +1144,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1191,12 +1159,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.448"</t>
+          <t>0.384"</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.128"</t>
+          <t>0.102"</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1216,17 +1184,17 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>90271A240</t>
+          <t>90271A203</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1238,7 +1206,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1278,12 +1246,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>90271A242</t>
+          <t>90271A240</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1300,7 +1268,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1340,12 +1308,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>90271A245</t>
+          <t>90271A242</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1362,7 +1330,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1402,12 +1370,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>90271A247</t>
+          <t>90271A245</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>7.38</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1424,7 +1392,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1464,12 +1432,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>90271A249</t>
+          <t>90271A247</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>7.38</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1486,7 +1454,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1526,12 +1494,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>90271A251</t>
+          <t>90271A249</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1548,7 +1516,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1588,17 +1556,17 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>90271A827</t>
+          <t>90271A251</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1610,7 +1578,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1650,12 +1618,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>90271A829</t>
+          <t>90271A827</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1672,7 +1640,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1712,12 +1680,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>90271A831</t>
+          <t>90271A829</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1734,7 +1702,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1774,12 +1742,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>90271A833</t>
+          <t>90271A831</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>11.38</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1796,7 +1764,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1836,12 +1804,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>90271A835</t>
+          <t>90271A833</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>10.49</t>
+          <t>11.38</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1858,7 +1826,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1893,17 +1861,17 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>90271A836</t>
+          <t>90271A835</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>8.38</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1920,7 +1888,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1935,17 +1903,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.573"</t>
+          <t>0.448"</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.150"</t>
+          <t>0.128"</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1955,22 +1923,22 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>90271A535</t>
+          <t>90271A836</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>8.20</t>
+          <t>8.38</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1982,7 +1950,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2022,12 +1990,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>90271A537</t>
+          <t>90271A535</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>9.66</t>
+          <t>8.20</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2044,7 +2012,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2069,7 +2037,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2084,12 +2052,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>90271A539</t>
+          <t>90271A537</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>10.03</t>
+          <t>9.66</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2106,7 +2074,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2146,12 +2114,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>90271A540</t>
+          <t>90271A539</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>10.92</t>
+          <t>10.03</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2168,7 +2136,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2208,12 +2176,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>90271A542</t>
+          <t>90271A540</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>11.76</t>
+          <t>10.92</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2230,7 +2198,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2270,12 +2238,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>90271A544</t>
+          <t>90271A542</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>15.16</t>
+          <t>11.76</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2292,7 +2260,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2332,12 +2300,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>90271A546</t>
+          <t>90271A544</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>15.48</t>
+          <t>15.16</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2354,7 +2322,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2389,17 +2357,17 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>90271A550</t>
+          <t>90271A546</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>13.06</t>
+          <t>15.48</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2416,7 +2384,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2456,12 +2424,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>90271A552</t>
+          <t>90271A550</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>15.11</t>
+          <t>13.06</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2478,7 +2446,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2513,17 +2481,17 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>90271A554</t>
+          <t>90271A552</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>9.26</t>
+          <t>15.11</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2540,7 +2508,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2555,12 +2523,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.698"</t>
+          <t>0.573"</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.183"</t>
+          <t>0.150"</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2575,22 +2543,22 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>90271A578</t>
+          <t>90271A554</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>11.52</t>
+          <t>9.26</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2602,7 +2570,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2642,12 +2610,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>90271A581</t>
+          <t>90271A578</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>11.05</t>
+          <t>11.52</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2664,7 +2632,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2699,17 +2667,17 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>90271A583</t>
+          <t>90271A581</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>7.74</t>
+          <t>11.05</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2726,7 +2694,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2766,12 +2734,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>90271A587</t>
+          <t>90271A583</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2788,7 +2756,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2828,12 +2796,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>90271A591</t>
+          <t>90271A587</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>11.72</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2850,17 +2818,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2885,17 +2853,17 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>90271A593</t>
+          <t>90271A591</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>11.72</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2912,17 +2880,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2952,12 +2920,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>90271A595</t>
+          <t>90271A593</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2974,7 +2942,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2989,12 +2957,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.823"</t>
+          <t>0.698"</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.215"</t>
+          <t>0.183"</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3009,22 +2977,22 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>90271A622</t>
+          <t>90271A595</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>8.73</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>3/8"-16</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3036,7 +3004,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3071,17 +3039,17 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>90271A624</t>
+          <t>90271A622</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>8.73</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3098,7 +3066,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3138,12 +3106,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>90271A632</t>
+          <t>90271A624</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3160,60 +3128,122 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>2"</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.823"</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0.215"</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>90271A632</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>10.91</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>3/8"-16</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
           <t>3"</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>0.823"</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>0.215"</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>90271A636</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>13.72</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>3/8"-16</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
         </is>
